--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>641979.4357842568</v>
+        <v>639722.413875173</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836232</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>351.4907066044592</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>37.99799236506669</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>27.37301815329025</v>
       </c>
       <c r="V4" t="n">
-        <v>60.56178562745414</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>211.182961130578</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>305.1646042096455</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.0044127072327</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>198.5424032384318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,16 +1190,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>195.2026164713292</v>
       </c>
       <c r="X8" t="n">
-        <v>256.3490254110147</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>82.92375604299515</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.270565549321534</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>163.6898441249728</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>202.7065546813644</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873204</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>113.510364625081</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>66.07448869287008</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247882</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>88.03152694872334</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620241</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>46.94197271911737</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>248.5806663501704</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,10 +2333,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292623</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396202</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247756</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734035369</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>74.75769145492306</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>66.23125412672984</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004747</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2770,13 +2770,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>172.7805106067532</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2950,10 +2950,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>74.36859304806373</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3007,16 +3007,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>234.0331318488867</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,13 +3238,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>147.0633545968145</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>132.7426476529389</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935318</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102223</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298068</v>
+        <v>91.48962022749542</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581636</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>45.11057872238644</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.87589738164195</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430364</v>
+        <v>188.7127700430365</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>218.4926939877638</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>285.1555829172075</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354225</v>
+        <v>251.0813880354226</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481854</v>
+        <v>285.4667430481856</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006316</v>
+        <v>224.6534001006318</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636893</v>
+        <v>217.5283980636894</v>
       </c>
     </row>
     <row r="38">
@@ -3509,19 +3509,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124632</v>
+        <v>49.37728379124466</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,10 +3791,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145565</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1233.603060210037</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="C2" t="n">
-        <v>864.6405432696254</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4340,7 +4340,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2349.976805717043</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1997.208150446929</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X2" t="n">
-        <v>1623.742392185849</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y2" t="n">
-        <v>1233.603060210037</v>
+        <v>1327.372931623164</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4425,7 +4425,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>489.3918856584278</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>489.3918856584278</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>489.3918856584278</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1670.695888779115</v>
+        <v>1172.829108994408</v>
       </c>
       <c r="C5" t="n">
-        <v>1670.695888779115</v>
+        <v>1172.829108994408</v>
       </c>
       <c r="D5" t="n">
-        <v>1312.430190172365</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>926.6419375741202</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>515.6560327845127</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843237</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>2057.295728843237</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>2057.295728843237</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y5" t="n">
-        <v>2057.295728843237</v>
+        <v>1559.428949058529</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4653,7 +4653,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064343</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064343</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.906241876376</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.752638628377</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>1871.983983358263</v>
+        <v>1520.337903526926</v>
       </c>
       <c r="X8" t="n">
-        <v>1613.045573852188</v>
+        <v>1146.872145265846</v>
       </c>
       <c r="Y8" t="n">
-        <v>1222.906241876376</v>
+        <v>1146.872145265846</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>720.784978601059</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>720.784978601059</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>720.784978601059</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>493.4767912696608</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U10" t="n">
-        <v>493.4767912696608</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V10" t="n">
-        <v>493.4767912696608</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W10" t="n">
-        <v>204.0596212327002</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X10" t="n">
-        <v>204.0596212327002</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="Y10" t="n">
-        <v>204.0596212327002</v>
+        <v>137.7043515607636</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5039,28 +5039,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L11" t="n">
-        <v>1339.447785386687</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M11" t="n">
-        <v>2317.998088216516</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N11" t="n">
-        <v>3297.750360443163</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O11" t="n">
-        <v>3800.7228313225</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5121,37 +5121,37 @@
         <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>805.0466682503443</v>
+        <v>260.9043113423064</v>
       </c>
       <c r="C13" t="n">
-        <v>636.1104853224374</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5203,46 +5203,46 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892253</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598118</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.125669518531</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952191</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104705</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104705</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931532</v>
       </c>
       <c r="T13" t="n">
-        <v>1751.589370466962</v>
+        <v>1542.890966501058</v>
       </c>
       <c r="U13" t="n">
-        <v>1751.589370466962</v>
+        <v>1253.788099626701</v>
       </c>
       <c r="V13" t="n">
-        <v>1496.904882261075</v>
+        <v>999.1036114208144</v>
       </c>
       <c r="W13" t="n">
-        <v>1207.487712224114</v>
+        <v>709.6864413838539</v>
       </c>
       <c r="X13" t="n">
-        <v>1207.487712224114</v>
+        <v>481.6968904858365</v>
       </c>
       <c r="Y13" t="n">
-        <v>986.695133080584</v>
+        <v>260.9043113423064</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5279,19 +5279,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1069.293752345675</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M14" t="n">
-        <v>1897.67628410419</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N14" t="n">
-        <v>2877.428556330836</v>
+        <v>2915.526830679739</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>3795.491481009194</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L15" t="n">
         <v>794.200663232024</v>
@@ -5379,16 +5379,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>658.1567207524338</v>
+        <v>210.2179684131227</v>
       </c>
       <c r="C16" t="n">
-        <v>489.220537824527</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5440,7 +5440,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
         <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1644.746393431757</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1578.004485661182</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1578.004485661182</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W16" t="n">
-        <v>1288.587315624221</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X16" t="n">
-        <v>1060.597764726204</v>
+        <v>391.8664332433624</v>
       </c>
       <c r="Y16" t="n">
-        <v>839.8051855826735</v>
+        <v>391.8664332433624</v>
       </c>
     </row>
     <row r="17">
@@ -5492,49 +5492,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K17" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1971.087962216427</v>
+        <v>1840.447459262337</v>
       </c>
       <c r="M17" t="n">
-        <v>2649.230460361821</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>2920.758180993044</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5546,19 +5546,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973196</v>
+        <v>970.592772497321</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216194</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549427</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494872</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763722</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089903</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468579</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5595,16 +5595,16 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5613,31 +5613,31 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549554</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142069</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635549</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487876</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282343</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517389</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>499.6351384500832</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>330.6989555221763</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>330.6989555221763</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>330.6989555221763</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>330.6989555221763</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5671,52 +5671,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953301</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927029</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.73316995219</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783403</v>
+        <v>909.2731541783412</v>
       </c>
       <c r="W19" t="n">
-        <v>909.2731541783403</v>
+        <v>619.8559841413805</v>
       </c>
       <c r="X19" t="n">
-        <v>681.283603280323</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>681.283603280323</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5753,43 +5753,43 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L20" t="n">
         <v>1803.682313196074</v>
       </c>
       <c r="M20" t="n">
-        <v>2782.232616025903</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N20" t="n">
-        <v>3362.809616117415</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O20" t="n">
-        <v>3865.782086996752</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.55645335393</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
         <v>794.200663232024</v>
@@ -5850,7 +5850,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142067</v>
@@ -5859,16 +5859,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U21" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282341</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>855.6340846510827</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C22" t="n">
-        <v>686.6979017231758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>536.5812623108401</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5908,13 +5908,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5926,34 +5926,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q22" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
-        <v>1627.410990629343</v>
+        <v>1542.890966501055</v>
       </c>
       <c r="U22" t="n">
-        <v>1338.308123754987</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1083.6236355491</v>
+        <v>1002.69651745481</v>
       </c>
       <c r="W22" t="n">
-        <v>1083.6236355491</v>
+        <v>713.2793474178488</v>
       </c>
       <c r="X22" t="n">
-        <v>855.6340846510827</v>
+        <v>485.2897965198315</v>
       </c>
       <c r="Y22" t="n">
-        <v>855.6340846510827</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5972,67 +5972,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001588</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277723</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176177</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1650.184003770971</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2497.450077968871</v>
+        <v>2536.153662641309</v>
       </c>
       <c r="N23" t="n">
-        <v>3044.228895027652</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906987</v>
+        <v>3585.904950579429</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.556453353932</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,52 +6042,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390114</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193579</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320224</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454337</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008791</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426845</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902947</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549546</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>460.4910241367897</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>460.4910241367897</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>310.374384724454</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>162.4612911420609</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>162.4612911420609</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>162.4612911420609</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>162.4612911420609</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953298</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442057</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927014</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.38769389225</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598114</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518527</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952186</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.3434661047</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862228</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689054</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.06050925858</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384224</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783372</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W25" t="n">
-        <v>909.2731541783372</v>
+        <v>619.8559841413793</v>
       </c>
       <c r="X25" t="n">
-        <v>681.2836032803199</v>
+        <v>391.8664332433619</v>
       </c>
       <c r="Y25" t="n">
-        <v>460.4910241367897</v>
+        <v>171.0738540998318</v>
       </c>
     </row>
     <row r="26">
@@ -6203,25 +6203,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
@@ -6230,25 +6230,25 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1390.197710791128</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2368.748013620957</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N26" t="n">
-        <v>3044.228895027648</v>
+        <v>2920.758180993044</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906985</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
         <v>4667.761053946815</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>579.0900014994927</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.6836668953299</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.576850674229</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1445.473983799873</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>1156.056813762912</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>981.5310454732626</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>760.7384663297324</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,25 +6461,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1650.184003770974</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2628.734306600803</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3254.420735780954</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O29" t="n">
-        <v>3757.393206660291</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
         <v>4719.034655862919</v>
@@ -6488,25 +6488,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6531,31 +6531,31 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
         <v>2436.460902902952</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>880.1664592079844</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="C31" t="n">
-        <v>711.2302762800775</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D31" t="n">
-        <v>561.1136368677418</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E31" t="n">
-        <v>561.1136368677418</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F31" t="n">
-        <v>414.2236893698314</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6634,37 +6634,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1355.643526557401</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1100.959038351514</v>
+        <v>927.5605395065638</v>
       </c>
       <c r="W31" t="n">
-        <v>1100.959038351514</v>
+        <v>638.1433694696032</v>
       </c>
       <c r="X31" t="n">
-        <v>1100.959038351514</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="Y31" t="n">
-        <v>880.1664592079844</v>
+        <v>410.1538185715858</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>348.082974081076</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L32" t="n">
-        <v>1803.682313196074</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M32" t="n">
-        <v>2337.214217867999</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N32" t="n">
-        <v>3316.966490094645</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6798,7 +6798,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6807,16 +6807,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
         <v>1346.568408282342</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1023.336921276364</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>854.4007383484569</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6862,7 +6862,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6871,7 +6871,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
@@ -6886,22 +6886,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1674.827124689058</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>1674.827124689058</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>1385.409954652097</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>1157.42040375408</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1023.336921276364</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6914,49 +6914,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420604</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -7014,10 +7014,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L36" t="n">
         <v>794.200663232024</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>604.8924179035253</v>
+        <v>187.9747922539453</v>
       </c>
       <c r="C37" t="n">
-        <v>437.0231595093613</v>
+        <v>187.9747922539453</v>
       </c>
       <c r="D37" t="n">
-        <v>287.9734446307685</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>141.1272755821181</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
         <v>95.56103444839442</v>
@@ -7093,13 +7093,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308515</v>
+        <v>141.7293596308513</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152494</v>
+        <v>346.762235315249</v>
       </c>
       <c r="L37" t="n">
-        <v>664.367726499267</v>
+        <v>664.3677264992664</v>
       </c>
       <c r="M37" t="n">
         <v>1009.570464834337</v>
@@ -7108,37 +7108,37 @@
         <v>1352.024534275723</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931658</v>
+        <v>1652.399825931657</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.053019100839</v>
+        <v>1886.053019100838</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988876</v>
+        <v>1964.709007988874</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988876</v>
+        <v>1875.945475280145</v>
       </c>
       <c r="S37" t="n">
-        <v>1774.090048349445</v>
+        <v>1685.326515640714</v>
       </c>
       <c r="T37" t="n">
-        <v>1774.090048349445</v>
+        <v>1464.626824743983</v>
       </c>
       <c r="U37" t="n">
-        <v>1774.090048349445</v>
+        <v>1176.590882403369</v>
       </c>
       <c r="V37" t="n">
-        <v>1520.472484677301</v>
+        <v>922.9733187312249</v>
       </c>
       <c r="W37" t="n">
-        <v>1232.122239174083</v>
+        <v>634.6230732280071</v>
       </c>
       <c r="X37" t="n">
-        <v>1005.199612809809</v>
+        <v>407.7004468637326</v>
       </c>
       <c r="Y37" t="n">
-        <v>785.473958200022</v>
+        <v>187.9747922539453</v>
       </c>
     </row>
     <row r="38">
@@ -7157,10 +7157,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7175,25 +7175,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L38" t="n">
-        <v>1390.197710791128</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M38" t="n">
-        <v>1923.729615463053</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N38" t="n">
-        <v>2903.481887689699</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O38" t="n">
-        <v>3783.446538019154</v>
+        <v>3819.938960973981</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089898</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468572</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7272,7 +7272,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7281,7 +7281,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
         <v>2043.809373447819</v>
@@ -7290,7 +7290,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
         <v>1346.568408282342</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215063</v>
+        <v>788.5151678215047</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416727</v>
+        <v>667.0286178416711</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774103</v>
+        <v>564.3616113774087</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430905</v>
+        <v>463.8981507430889</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932535</v>
+        <v>364.4578361932518</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160454</v>
+        <v>244.2046325160438</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819766</v>
+        <v>145.4370786819749</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7333,49 +7333,49 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490193</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499225</v>
+        <v>800.746804049922</v>
       </c>
       <c r="M40" t="n">
-        <v>1191.409234901878</v>
+        <v>1191.409234901877</v>
       </c>
       <c r="N40" t="n">
-        <v>1579.32299686015</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O40" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P40" t="n">
-        <v>2204.270866719036</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829559</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.564400937959</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849074</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036727</v>
+        <v>922.7139997036711</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
@@ -7409,28 +7409,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L41" t="n">
-        <v>1971.087962216427</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M41" t="n">
-        <v>2949.638265046256</v>
+        <v>2183.715908442898</v>
       </c>
       <c r="N41" t="n">
-        <v>3496.417082105038</v>
+        <v>3163.468180669544</v>
       </c>
       <c r="O41" t="n">
-        <v>4010.914672075805</v>
+        <v>4043.432830998999</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432984</v>
+        <v>4438.207197356177</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7442,13 +7442,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7479,7 +7479,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,13 +7488,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215051</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416715</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7573,7 +7573,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7588,19 +7588,19 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
         <v>1518.56440093796</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036714</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,28 +7646,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>818.2062848686776</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L44" t="n">
-        <v>1682.725100522032</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M44" t="n">
-        <v>2216.257005193957</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N44" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7679,19 +7679,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,64 +7701,64 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F46" t="n">
         <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7807,10 +7807,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7825,7 +7825,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,7 +8222,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928328</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>32.86979469803862</v>
       </c>
       <c r="L11" t="n">
-        <v>272.8828616575882</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,22 +8927,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>297.8289162490807</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>283.3156027685499</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9167,10 +9167,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>285.7011105564192</v>
       </c>
       <c r="M17" t="n">
-        <v>146.0713065388582</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9182,10 +9182,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>-2.814834400044645e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9407,16 +9407,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>161.8544041422909</v>
       </c>
       <c r="N20" t="n">
-        <v>34.13957882093928</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9638,13 +9638,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>316.9032015413901</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>216.9877583263336</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>6.539269126193403e-12</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,25 +9878,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>130.0020851999082</v>
+        <v>37.13651117804318</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>79.70465870845339</v>
+        <v>36.48628322062268</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>64.28566532692543</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>258.621178561693</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,22 +10583,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>441.4693580670868</v>
       </c>
       <c r="N35" t="n">
-        <v>189.7998007892644</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,16 +10835,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>17.45080131651065</v>
+        <v>46.30618790178943</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,28 +11060,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>11.64153443578789</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>32.86979469804018</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>201.9664098701124</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>231.5010718068644</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3.556976973655</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>16.84239459480483</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>53.73645647354682</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23668,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>220.1373495127428</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>77.99428131030488</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>105.074288727013</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>172.6069765570518</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>3.556976973657612</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270142</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>30.12116628310837</v>
+        <v>96.3524204098381</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,10 +24610,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24649,7 +24649,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>52.92914478228397</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>91.65721521096449</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,16 +24895,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>18.1045114749413</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25126,13 +25126,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.84200569915589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>178.7757248935319</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>166.1905658102224</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>56.06959750231154</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>145.3777073581638</v>
       </c>
       <c r="F37" t="n">
-        <v>99.25421401213926</v>
+        <v>144.3647927345258</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706227</v>
+        <v>164.9695529706228</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259152</v>
+        <v>143.6987596259154</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143255</v>
+        <v>95.29616512143269</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164178</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877637</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172073</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-8.15987277746899e-13</v>
+        <v>9.023892744153272e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1064183.834966471</v>
+        <v>1064183.834966472</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1064183.834966471</v>
+        <v>1064183.834966472</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855344</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="D2" t="n">
         <v>389994.8406855345</v>
       </c>
       <c r="E2" t="n">
+        <v>377227.697542634</v>
+      </c>
+      <c r="F2" t="n">
         <v>377227.6975426339</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>377227.697542634</v>
+      </c>
+      <c r="H2" t="n">
         <v>377227.6975426342</v>
       </c>
-      <c r="G2" t="n">
-        <v>377227.6975426342</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>377227.697542634</v>
       </c>
-      <c r="I2" t="n">
-        <v>377227.6975426339</v>
-      </c>
       <c r="J2" t="n">
-        <v>377227.6975426342</v>
+        <v>377227.697542634</v>
       </c>
       <c r="K2" t="n">
         <v>377227.6975426339</v>
       </c>
       <c r="L2" t="n">
-        <v>377227.6975426342</v>
+        <v>377227.6975426339</v>
       </c>
       <c r="M2" t="n">
-        <v>377514.7720129442</v>
+        <v>377514.7720129437</v>
       </c>
       <c r="N2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855343</v>
       </c>
       <c r="O2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="P2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855347</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925943</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696692</v>
+        <v>130487.3190696691</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414964</v>
+        <v>36735.10506414972</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26418,28 +26418,28 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
+        <v>183348.6868571279</v>
+      </c>
+      <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
-      <c r="D4" t="n">
-        <v>183348.6868571279</v>
-      </c>
       <c r="E4" t="n">
+        <v>18148.49231918997</v>
+      </c>
+      <c r="F4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18148.49231918996</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="J4" t="n">
         <v>18148.49231918992</v>
-      </c>
-      <c r="G4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18148.49231918993</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18148.49231919007</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
@@ -26448,16 +26448,16 @@
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811458</v>
+        <v>18496.05294811452</v>
       </c>
       <c r="N4" t="n">
         <v>33605.65329740898</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740901</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740901</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26482,16 +26482,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26500,7 +26500,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96472.31657955462</v>
+        <v>96472.31657955461</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-466180.8034495472</v>
+        <v>-466180.8034495475</v>
       </c>
       <c r="C6" t="n">
-        <v>123787.0757649969</v>
+        <v>123787.0757649971</v>
       </c>
       <c r="D6" t="n">
         <v>123787.0757649971</v>
       </c>
       <c r="E6" t="n">
-        <v>-464681.7270236763</v>
+        <v>-464748.9225139021</v>
       </c>
       <c r="F6" t="n">
-        <v>262695.6869697305</v>
+        <v>262628.4914795045</v>
       </c>
       <c r="G6" t="n">
-        <v>262695.6869697305</v>
+        <v>262628.4914795043</v>
       </c>
       <c r="H6" t="n">
-        <v>262695.6869697304</v>
+        <v>262628.4914795053</v>
       </c>
       <c r="I6" t="n">
-        <v>262695.6869697316</v>
+        <v>262628.4914795046</v>
       </c>
       <c r="J6" t="n">
-        <v>86272.46777713626</v>
+        <v>86205.27228691163</v>
       </c>
       <c r="K6" t="n">
-        <v>262695.6869697303</v>
+        <v>262628.4914795045</v>
       </c>
       <c r="L6" t="n">
-        <v>262695.6869697305</v>
+        <v>262628.4914795044</v>
       </c>
       <c r="M6" t="n">
-        <v>132059.0834156058</v>
+        <v>131993.3988436445</v>
       </c>
       <c r="N6" t="n">
-        <v>219321.4113098737</v>
+        <v>219321.4113098735</v>
       </c>
       <c r="O6" t="n">
-        <v>256056.5163740235</v>
+        <v>256056.5163740237</v>
       </c>
       <c r="P6" t="n">
-        <v>256056.5163740236</v>
+        <v>256056.5163740234</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405547</v>
+        <v>1.056255288405393</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26750,13 +26750,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405547</v>
+        <v>1.056255288405393</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018705</v>
+        <v>45.91888133018715</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26972,16 +26972,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-4.380537221829111e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>31.24313505902137</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>289.7542661050682</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>258.9088560886875</v>
       </c>
       <c r="V4" t="n">
-        <v>191.5758576963739</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>143.5000804901049</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>108.6195658111495</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,13 +27783,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>19.66077927292511</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.04225011366296</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27901,7 +27901,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>154.0383522460838</v>
       </c>
       <c r="X8" t="n">
-        <v>113.3820752674544</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>96.90822413894215</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.85218440559277</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.940255363782247e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405547</v>
+        <v>1.056255288405393</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405547</v>
+        <v>1.056255288405393</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405547</v>
+        <v>1.056255288405393</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405547</v>
+        <v>1.056255288405393</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405547</v>
+        <v>1.056255288405393</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405547</v>
+        <v>1.056255288405393</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405547</v>
+        <v>1.056255288405393</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405547</v>
+        <v>1.056255288405393</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405547</v>
+        <v>1.056255288405393</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405547</v>
+        <v>1.056255288405393</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405547</v>
+        <v>1.056255288405393</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405547</v>
+        <v>1.056255288405393</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405547</v>
+        <v>1.056255288405393</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405547</v>
+        <v>1.056255288405393</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405547</v>
+        <v>1.056255288405393</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405547</v>
+        <v>1.056255288405393</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405547</v>
+        <v>1.056255288405393</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405547</v>
+        <v>1.056255288405393</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405547</v>
+        <v>1.056255288405393</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405547</v>
+        <v>1.056255288405393</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405547</v>
+        <v>1.056255288405393</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405547</v>
+        <v>1.056255288405393</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405547</v>
+        <v>1.056255288405393</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405547</v>
+        <v>1.056255288405393</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I17" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681591</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.8670377284466</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974797</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953982</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.28113760038</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623182</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574981</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095011</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099046</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746403</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781682</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563564</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806935</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451117</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345272</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502563</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798528</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752244</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026434</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353151</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138788</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233465</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837915</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970241</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987482</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905539</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238309</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898482</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462213</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430534</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311877</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742009</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
-        <v>138.9375967297388</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702021</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098815</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316427</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.724773788311</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023085996</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802165</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895878</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712201</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.2475727055303</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112282</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780293</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33515,7 +33515,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34463,7 +34463,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,7 +34942,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060969</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
         <v>478.8956552492236</v>
@@ -35021,10 +35021,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,10 +35258,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>370.0610812534391</v>
       </c>
       <c r="L11" t="n">
-        <v>728.4729760499204</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35574,7 +35574,7 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934858</v>
       </c>
       <c r="N13" t="n">
         <v>344.8569461675401</v>
@@ -35647,22 +35647,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>836.7500320793075</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>682.0775889879218</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
@@ -35805,7 +35805,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35823,7 +35823,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265655</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>741.2912249487516</v>
       </c>
       <c r="M17" t="n">
-        <v>684.9924223690849</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509648</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306631</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>700.7755199725175</v>
       </c>
       <c r="N20" t="n">
-        <v>586.4414142338508</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407857</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865553995</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427814</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>855.8243173716155</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129101</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882179</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908533</v>
+        <v>615.7497445457052</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636234</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222432</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597674</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609561</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340046</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013282</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004582</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525797</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859617</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127267</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.578416613066</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443192</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701976</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934833</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675396</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226393</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>234.95707114511</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789337</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>682.3039206128196</v>
+        <v>589.4383465909547</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
@@ -36841,7 +36841,7 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>632.0064941213649</v>
+        <v>588.7881186335342</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
@@ -36850,7 +36850,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>255.072666295638</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>766.6741794499121</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37303,22 +37303,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>980.3904738973135</v>
       </c>
       <c r="N35" t="n">
-        <v>742.1016362021759</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37327,7 +37327,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147177</v>
+        <v>46.63467190147162</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327251</v>
+        <v>207.103914832725</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586037</v>
+        <v>320.8136274586035</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818894</v>
+        <v>348.6896346818892</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559456</v>
+        <v>345.9132014559455</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110453</v>
+        <v>303.4093855110452</v>
       </c>
       <c r="P37" t="n">
-        <v>236.013326433516</v>
+        <v>236.0133264335158</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629921</v>
+        <v>79.45049382629905</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>416.2127875358825</v>
+        <v>445.0681741211611</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>519.694535324007</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>283.6640995017596</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>539.1576964255129</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>770.4221876370912</v>
       </c>
       <c r="N44" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
@@ -38193,7 +38193,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
